--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -28,784 +28,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>flower/flower080.png</t>
+  </si>
+  <si>
+    <t>flower/flower094.png</t>
+  </si>
+  <si>
+    <t>car/car064.png</t>
+  </si>
+  <si>
+    <t>face/face065.png</t>
+  </si>
+  <si>
+    <t>flower/flower106.png</t>
+  </si>
+  <si>
+    <t>dog/dog103.png</t>
+  </si>
+  <si>
+    <t>car/car077.png</t>
+  </si>
+  <si>
+    <t>face/face098.png</t>
+  </si>
+  <si>
+    <t>dog/dog105.png</t>
+  </si>
+  <si>
+    <t>face/face077.png</t>
+  </si>
+  <si>
+    <t>car/car080.png</t>
+  </si>
+  <si>
+    <t>flower/flower075.png</t>
+  </si>
+  <si>
+    <t>dog/dog097.png</t>
+  </si>
+  <si>
+    <t>flower/flower104.png</t>
+  </si>
+  <si>
+    <t>flower/flower064.png</t>
+  </si>
+  <si>
+    <t>face/face080.png</t>
+  </si>
+  <si>
+    <t>dog/dog096.png</t>
+  </si>
+  <si>
+    <t>face/face086.png</t>
+  </si>
+  <si>
+    <t>flower/flower067.png</t>
+  </si>
+  <si>
+    <t>face/face107.png</t>
+  </si>
+  <si>
+    <t>dog/dog084.png</t>
+  </si>
+  <si>
+    <t>flower/flower098.png</t>
+  </si>
+  <si>
+    <t>flower/flower088.png</t>
+  </si>
+  <si>
+    <t>car/car096.png</t>
+  </si>
+  <si>
+    <t>flower/flower097.png</t>
+  </si>
+  <si>
+    <t>dog/dog080.png</t>
+  </si>
+  <si>
+    <t>car/car065.png</t>
+  </si>
+  <si>
+    <t>car/car107.png</t>
+  </si>
+  <si>
+    <t>dog/dog074.png</t>
+  </si>
+  <si>
+    <t>dog/dog107.png</t>
+  </si>
+  <si>
+    <t>dog/dog094.png</t>
+  </si>
+  <si>
+    <t>face/face068.png</t>
+  </si>
+  <si>
+    <t>car/car069.png</t>
+  </si>
+  <si>
+    <t>car/car082.png</t>
+  </si>
+  <si>
+    <t>flower/flower089.png</t>
+  </si>
+  <si>
+    <t>flower/flower107.png</t>
+  </si>
+  <si>
+    <t>car/car072.png</t>
+  </si>
+  <si>
+    <t>dog/dog122.png</t>
+  </si>
+  <si>
+    <t>face/face079.png</t>
+  </si>
+  <si>
+    <t>car/car121.png</t>
+  </si>
+  <si>
+    <t>car/car087.png</t>
+  </si>
+  <si>
+    <t>face/face087.png</t>
+  </si>
+  <si>
+    <t>dog/dog090.png</t>
+  </si>
+  <si>
+    <t>car/car117.png</t>
+  </si>
+  <si>
+    <t>flower/flower070.png</t>
+  </si>
+  <si>
+    <t>car/car101.png</t>
+  </si>
+  <si>
+    <t>dog/dog104.png</t>
+  </si>
+  <si>
+    <t>flower/flower110.png</t>
+  </si>
+  <si>
+    <t>dog/dog082.png</t>
+  </si>
+  <si>
+    <t>dog/dog077.png</t>
+  </si>
+  <si>
+    <t>face/face074.png</t>
+  </si>
+  <si>
+    <t>dog/dog114.png</t>
+  </si>
+  <si>
+    <t>dog/dog085.png</t>
+  </si>
+  <si>
+    <t>face/face097.png</t>
+  </si>
+  <si>
+    <t>flower/flower105.png</t>
+  </si>
+  <si>
+    <t>face/face089.png</t>
+  </si>
+  <si>
+    <t>face/face085.png</t>
+  </si>
+  <si>
+    <t>dog/dog075.png</t>
+  </si>
+  <si>
     <t>dog/dog106.png</t>
   </si>
   <si>
+    <t>face/face076.png</t>
+  </si>
+  <si>
+    <t>dog/dog071.png</t>
+  </si>
+  <si>
     <t>face/face091.png</t>
   </si>
   <si>
-    <t>flower/flower111.png</t>
-  </si>
-  <si>
-    <t>car/car112.png</t>
-  </si>
-  <si>
-    <t>car/car069.png</t>
+    <t>face/face081.png</t>
+  </si>
+  <si>
+    <t>car/car070.png</t>
+  </si>
+  <si>
+    <t>dog/dog092.png</t>
+  </si>
+  <si>
+    <t>flower/flower095.png</t>
+  </si>
+  <si>
+    <t>car/car067.png</t>
+  </si>
+  <si>
+    <t>face/face096.png</t>
+  </si>
+  <si>
+    <t>flower/flower093.png</t>
+  </si>
+  <si>
+    <t>flower/flower086.png</t>
+  </si>
+  <si>
+    <t>dog/dog072.png</t>
+  </si>
+  <si>
+    <t>car/car091.png</t>
+  </si>
+  <si>
+    <t>car/car088.png</t>
+  </si>
+  <si>
+    <t>car/car083.png</t>
+  </si>
+  <si>
+    <t>dog/dog068.png</t>
+  </si>
+  <si>
+    <t>flower/flower072.png</t>
+  </si>
+  <si>
+    <t>flower/flower087.png</t>
+  </si>
+  <si>
+    <t>dog/dog108.png</t>
+  </si>
+  <si>
+    <t>car/car097.png</t>
+  </si>
+  <si>
+    <t>car/car093.png</t>
+  </si>
+  <si>
+    <t>face/face093.png</t>
+  </si>
+  <si>
+    <t>dog/dog066.png</t>
+  </si>
+  <si>
+    <t>dog/dog081.png</t>
+  </si>
+  <si>
+    <t>car/car089.png</t>
+  </si>
+  <si>
+    <t>face/face108.png</t>
+  </si>
+  <si>
+    <t>face/face110.png</t>
+  </si>
+  <si>
+    <t>car/car085.png</t>
+  </si>
+  <si>
+    <t>flower/flower114.png</t>
+  </si>
+  <si>
+    <t>flower/flower126.png</t>
+  </si>
+  <si>
+    <t>face/face112.png</t>
+  </si>
+  <si>
+    <t>car/car106.png</t>
+  </si>
+  <si>
+    <t>face/face117.png</t>
+  </si>
+  <si>
+    <t>dog/dog093.png</t>
+  </si>
+  <si>
+    <t>face/face099.png</t>
+  </si>
+  <si>
+    <t>face/face064.png</t>
+  </si>
+  <si>
+    <t>face/face083.png</t>
+  </si>
+  <si>
+    <t>car/car086.png</t>
+  </si>
+  <si>
+    <t>flower/flower084.png</t>
+  </si>
+  <si>
+    <t>face/face066.png</t>
+  </si>
+  <si>
+    <t>dog/dog073.png</t>
+  </si>
+  <si>
+    <t>flower/flower100.png</t>
   </si>
   <si>
     <t>car/car068.png</t>
   </si>
   <si>
-    <t>face/face082.png</t>
-  </si>
-  <si>
-    <t>face/face066.png</t>
-  </si>
-  <si>
-    <t>dog/dog076.png</t>
+    <t>dog/dog115.png</t>
+  </si>
+  <si>
+    <t>car/car095.png</t>
+  </si>
+  <si>
+    <t>flower/flower091.png</t>
+  </si>
+  <si>
+    <t>flower/flower077.png</t>
+  </si>
+  <si>
+    <t>flower/flower101.png</t>
   </si>
   <si>
     <t>face/face078.png</t>
   </si>
   <si>
+    <t>dog/dog102.png</t>
+  </si>
+  <si>
+    <t>flower/flower073.png</t>
+  </si>
+  <si>
+    <t>flower/flower099.png</t>
+  </si>
+  <si>
     <t>car/car108.png</t>
   </si>
   <si>
-    <t>dog/dog081.png</t>
-  </si>
-  <si>
-    <t>car/car071.png</t>
-  </si>
-  <si>
-    <t>face/face104.png</t>
-  </si>
-  <si>
-    <t>face/face086.png</t>
-  </si>
-  <si>
-    <t>flower/flower102.png</t>
+    <t>dog/dog064.png</t>
+  </si>
+  <si>
+    <t>car/car084.png</t>
+  </si>
+  <si>
+    <t>face/face113.png</t>
+  </si>
+  <si>
+    <t>flower/flower068.png</t>
+  </si>
+  <si>
+    <t>flower/flower074.png</t>
+  </si>
+  <si>
+    <t>face/face095.png</t>
+  </si>
+  <si>
+    <t>flower/flower085.png</t>
+  </si>
+  <si>
+    <t>face/face073.png</t>
+  </si>
+  <si>
+    <t>car/car092.png</t>
+  </si>
+  <si>
+    <t>face/face084.png</t>
   </si>
   <si>
     <t>car/car099.png</t>
   </si>
   <si>
-    <t>face/face101.png</t>
-  </si>
-  <si>
-    <t>dog/dog070.png</t>
-  </si>
-  <si>
-    <t>car/car102.png</t>
-  </si>
-  <si>
-    <t>flower/flower098.png</t>
-  </si>
-  <si>
-    <t>car/car075.png</t>
-  </si>
-  <si>
-    <t>dog/dog096.png</t>
-  </si>
-  <si>
-    <t>flower/flower081.png</t>
-  </si>
-  <si>
-    <t>flower/flower116.png</t>
-  </si>
-  <si>
-    <t>flower/flower079.png</t>
-  </si>
-  <si>
-    <t>dog/dog074.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>flower/flower065.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>dog/dog082.png</t>
-  </si>
-  <si>
-    <t>flower/flower095.png</t>
-  </si>
-  <si>
-    <t>flower/flower100.png</t>
-  </si>
-  <si>
-    <t>dog/dog093.png</t>
-  </si>
-  <si>
-    <t>face/face087.png</t>
-  </si>
-  <si>
-    <t>car/car064.png</t>
-  </si>
-  <si>
-    <t>flower/flower067.png</t>
-  </si>
-  <si>
-    <t>dog/dog115.png</t>
-  </si>
-  <si>
-    <t>flower/flower085.png</t>
-  </si>
-  <si>
-    <t>face/face102.png</t>
-  </si>
-  <si>
-    <t>face/face084.png</t>
-  </si>
-  <si>
-    <t>car/car121.png</t>
-  </si>
-  <si>
-    <t>flower/flower078.png</t>
-  </si>
-  <si>
-    <t>flower/flower080.png</t>
-  </si>
-  <si>
-    <t>face/face069.png</t>
-  </si>
-  <si>
-    <t>face/face115.png</t>
-  </si>
-  <si>
-    <t>dog/dog077.png</t>
-  </si>
-  <si>
-    <t>flower/flower104.png</t>
-  </si>
-  <si>
-    <t>car/car107.png</t>
-  </si>
-  <si>
-    <t>dog/dog068.png</t>
-  </si>
-  <si>
-    <t>dog/dog095.png</t>
-  </si>
-  <si>
-    <t>face/face079.png</t>
-  </si>
-  <si>
-    <t>flower/flower087.png</t>
-  </si>
-  <si>
-    <t>flower/flower088.png</t>
-  </si>
-  <si>
-    <t>car/car077.png</t>
-  </si>
-  <si>
-    <t>face/face095.png</t>
-  </si>
-  <si>
-    <t>car/car085.png</t>
-  </si>
-  <si>
-    <t>car/car079.png</t>
-  </si>
-  <si>
-    <t>dog/dog069.png</t>
-  </si>
-  <si>
-    <t>face/face072.png</t>
-  </si>
-  <si>
-    <t>dog/dog094.png</t>
-  </si>
-  <si>
-    <t>car/car091.png</t>
-  </si>
-  <si>
-    <t>face/face073.png</t>
-  </si>
-  <si>
-    <t>car/car065.png</t>
-  </si>
-  <si>
-    <t>flower/flower092.png</t>
-  </si>
-  <si>
-    <t>face/face074.png</t>
-  </si>
-  <si>
-    <t>face/face096.png</t>
-  </si>
-  <si>
-    <t>flower/flower077.png</t>
-  </si>
-  <si>
-    <t>face/face097.png</t>
-  </si>
-  <si>
-    <t>flower/flower082.png</t>
-  </si>
-  <si>
-    <t>dog/dog064.png</t>
+    <t>car/car110.png</t>
+  </si>
+  <si>
+    <t>face/face109.png</t>
   </si>
   <si>
     <t>car/car094.png</t>
   </si>
   <si>
-    <t>dog/dog098.png</t>
-  </si>
-  <si>
-    <t>flower/flower090.png</t>
-  </si>
-  <si>
-    <t>car/car098.png</t>
-  </si>
-  <si>
-    <t>dog/dog114.png</t>
-  </si>
-  <si>
-    <t>flower/flower096.png</t>
-  </si>
-  <si>
-    <t>face/face105.png</t>
-  </si>
-  <si>
-    <t>car/car092.png</t>
-  </si>
-  <si>
-    <t>face/face071.png</t>
-  </si>
-  <si>
-    <t>dog/dog109.png</t>
-  </si>
-  <si>
-    <t>car/car082.png</t>
-  </si>
-  <si>
-    <t>dog/dog086.png</t>
-  </si>
-  <si>
     <t>dog/dog091.png</t>
   </si>
   <si>
-    <t>car/car081.png</t>
-  </si>
-  <si>
-    <t>dog/dog065.png</t>
-  </si>
-  <si>
-    <t>car/car097.png</t>
-  </si>
-  <si>
-    <t>dog/dog083.png</t>
-  </si>
-  <si>
-    <t>flower/flower114.png</t>
-  </si>
-  <si>
-    <t>dog/dog101.png</t>
-  </si>
-  <si>
-    <t>flower/flower101.png</t>
-  </si>
-  <si>
-    <t>car/car090.png</t>
-  </si>
-  <si>
-    <t>dog/dog071.png</t>
-  </si>
-  <si>
-    <t>flower/flower118.png</t>
-  </si>
-  <si>
-    <t>flower/flower075.png</t>
-  </si>
-  <si>
-    <t>dog/dog117.png</t>
-  </si>
-  <si>
-    <t>car/car078.png</t>
-  </si>
-  <si>
-    <t>flower/flower073.png</t>
-  </si>
-  <si>
-    <t>face/face092.png</t>
-  </si>
-  <si>
-    <t>car/car101.png</t>
-  </si>
-  <si>
-    <t>face/face100.png</t>
-  </si>
-  <si>
-    <t>dog/dog116.png</t>
-  </si>
-  <si>
-    <t>car/car088.png</t>
-  </si>
-  <si>
-    <t>face/face077.png</t>
-  </si>
-  <si>
-    <t>dog/dog088.png</t>
-  </si>
-  <si>
-    <t>car/car105.png</t>
-  </si>
-  <si>
-    <t>flower/flower113.png</t>
-  </si>
-  <si>
-    <t>dog/dog104.png</t>
-  </si>
-  <si>
-    <t>flower/flower110.png</t>
-  </si>
-  <si>
-    <t>dog/dog110.png</t>
-  </si>
-  <si>
-    <t>flower/flower069.png</t>
-  </si>
-  <si>
-    <t>face/face090.png</t>
-  </si>
-  <si>
-    <t>car/car103.png</t>
-  </si>
-  <si>
-    <t>car/car120.png</t>
-  </si>
-  <si>
-    <t>dog/dog105.png</t>
-  </si>
-  <si>
-    <t>flower/flower070.png</t>
-  </si>
-  <si>
-    <t>flower/flower121.png</t>
-  </si>
-  <si>
-    <t>flower/flower105.png</t>
-  </si>
-  <si>
-    <t>face/face065.png</t>
-  </si>
-  <si>
-    <t>face/face107.png</t>
-  </si>
-  <si>
-    <t>car/car100.png</t>
-  </si>
-  <si>
-    <t>face/face094.png</t>
-  </si>
-  <si>
-    <t>dog/dog087.png</t>
-  </si>
-  <si>
-    <t>face/face123.png</t>
-  </si>
-  <si>
-    <t>car/car072.png</t>
-  </si>
-  <si>
-    <t>face/face088.png</t>
-  </si>
-  <si>
-    <t>dog/dog090.png</t>
-  </si>
-  <si>
-    <t>car/car074.png</t>
+    <t>dog/dog079.png</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>quellen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>frischen</t>
+  </si>
+  <si>
+    <t>legen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>süßen</t>
   </si>
   <si>
     <t>fesseln</t>
   </si>
   <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>kugeln</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>grenzen</t>
   </si>
   <si>
     <t>jubeln</t>
   </si>
   <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>bluten</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>fühlen</t>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>angeln</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>stoppen</t>
   </si>
   <si>
     <t>strahlen</t>
   </si>
   <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>rasen</t>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>nullen</t>
+  </si>
+  <si>
+    <t>piepen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>schicken</t>
   </si>
   <si>
     <t>lügen</t>
   </si>
   <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>wollen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>klagen</t>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>car</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1214,15 +1214,15 @@
         <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1231,15 +1231,15 @@
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1248,15 +1248,15 @@
         <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1265,15 +1265,15 @@
         <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1316,15 +1316,15 @@
         <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1333,15 +1333,15 @@
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1350,15 +1350,15 @@
         <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1367,15 +1367,15 @@
         <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1418,15 +1418,15 @@
         <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1435,15 +1435,15 @@
         <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1486,15 +1486,15 @@
         <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1520,15 +1520,15 @@
         <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1537,15 +1537,15 @@
         <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1554,15 +1554,15 @@
         <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1588,15 +1588,15 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1605,15 +1605,15 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1622,15 +1622,15 @@
         <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1639,15 +1639,15 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1673,15 +1673,15 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1690,15 +1690,15 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1707,15 +1707,15 @@
         <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B33">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1741,15 +1741,15 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1758,15 +1758,15 @@
         <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1775,15 +1775,15 @@
         <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1792,15 +1792,15 @@
         <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1809,15 +1809,15 @@
         <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1826,15 +1826,15 @@
         <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B41">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B42">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -1894,15 +1894,15 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="B44">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1911,15 +1911,15 @@
         <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B45">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -1928,15 +1928,15 @@
         <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1945,15 +1945,15 @@
         <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1979,15 +1979,15 @@
         <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1996,15 +1996,15 @@
         <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -2030,15 +2030,15 @@
         <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B52">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -2047,15 +2047,15 @@
         <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B53">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -2064,15 +2064,15 @@
         <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -2081,15 +2081,15 @@
         <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B55">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -2115,15 +2115,15 @@
         <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -2132,15 +2132,15 @@
         <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
@@ -2149,15 +2149,15 @@
         <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -2183,15 +2183,15 @@
         <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -2200,15 +2200,15 @@
         <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -2217,15 +2217,15 @@
         <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B63">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -2234,15 +2234,15 @@
         <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
@@ -2251,15 +2251,15 @@
         <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -2268,15 +2268,15 @@
         <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -2285,15 +2285,15 @@
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -2302,15 +2302,15 @@
         <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B70">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -2353,15 +2353,15 @@
         <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -2370,15 +2370,15 @@
         <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B72">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
@@ -2387,15 +2387,15 @@
         <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B73">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -2404,15 +2404,15 @@
         <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B74">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
@@ -2421,15 +2421,15 @@
         <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
@@ -2438,15 +2438,15 @@
         <v>205</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B76">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B78">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -2489,15 +2489,15 @@
         <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -2506,15 +2506,15 @@
         <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -2523,15 +2523,15 @@
         <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B81">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B82">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -2557,15 +2557,15 @@
         <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B83">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -2591,15 +2591,15 @@
         <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -2608,15 +2608,15 @@
         <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B86">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2625,15 +2625,15 @@
         <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -2642,15 +2642,15 @@
         <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B88">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -2659,15 +2659,15 @@
         <v>218</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B89">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B90">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
@@ -2693,15 +2693,15 @@
         <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B91">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
@@ -2710,15 +2710,15 @@
         <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -2727,15 +2727,15 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B93">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -2744,15 +2744,15 @@
         <v>223</v>
       </c>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B94">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
@@ -2761,15 +2761,15 @@
         <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B95">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B96">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B97">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -2812,15 +2812,15 @@
         <v>227</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B98">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -2829,15 +2829,15 @@
         <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
@@ -2846,15 +2846,15 @@
         <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -2863,15 +2863,15 @@
         <v>230</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B102">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -2897,15 +2897,15 @@
         <v>232</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B103">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -2914,15 +2914,15 @@
         <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B104">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B105">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B106">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B107">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
@@ -2982,15 +2982,15 @@
         <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B108">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
@@ -2999,15 +2999,15 @@
         <v>238</v>
       </c>
       <c r="E108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B109">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -3016,15 +3016,15 @@
         <v>239</v>
       </c>
       <c r="E109" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B110">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -3033,15 +3033,15 @@
         <v>240</v>
       </c>
       <c r="E110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B111">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B112">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -3067,15 +3067,15 @@
         <v>242</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B114">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B115">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
@@ -3118,15 +3118,15 @@
         <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B116">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
@@ -3135,15 +3135,15 @@
         <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B117">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
@@ -3152,15 +3152,15 @@
         <v>247</v>
       </c>
       <c r="E117" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B118">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
@@ -3169,15 +3169,15 @@
         <v>248</v>
       </c>
       <c r="E118" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B119">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B120">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -3203,15 +3203,15 @@
         <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -3220,15 +3220,15 @@
         <v>251</v>
       </c>
       <c r="E121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B122">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
@@ -3237,15 +3237,15 @@
         <v>252</v>
       </c>
       <c r="E122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="B123">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
@@ -3254,15 +3254,15 @@
         <v>253</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B124">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -3271,15 +3271,15 @@
         <v>254</v>
       </c>
       <c r="E124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B125">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B126">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
@@ -3305,15 +3305,15 @@
         <v>256</v>
       </c>
       <c r="E126" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B127">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
@@ -3339,15 +3339,15 @@
         <v>258</v>
       </c>
       <c r="E128" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B129">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>

--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -28,784 +28,784 @@
     <t>category</t>
   </si>
   <si>
-    <t>flower/flower080.png</t>
-  </si>
-  <si>
-    <t>flower/flower094.png</t>
-  </si>
-  <si>
-    <t>car/car064.png</t>
-  </si>
-  <si>
-    <t>face/face065.png</t>
-  </si>
-  <si>
-    <t>flower/flower106.png</t>
-  </si>
-  <si>
-    <t>dog/dog103.png</t>
-  </si>
-  <si>
-    <t>car/car077.png</t>
-  </si>
-  <si>
-    <t>face/face098.png</t>
-  </si>
-  <si>
-    <t>dog/dog105.png</t>
-  </si>
-  <si>
-    <t>face/face077.png</t>
-  </si>
-  <si>
-    <t>car/car080.png</t>
-  </si>
-  <si>
-    <t>flower/flower075.png</t>
-  </si>
-  <si>
-    <t>dog/dog097.png</t>
-  </si>
-  <si>
-    <t>flower/flower104.png</t>
-  </si>
-  <si>
-    <t>flower/flower064.png</t>
-  </si>
-  <si>
-    <t>face/face080.png</t>
-  </si>
-  <si>
-    <t>dog/dog096.png</t>
-  </si>
-  <si>
-    <t>face/face086.png</t>
-  </si>
-  <si>
-    <t>flower/flower067.png</t>
-  </si>
-  <si>
-    <t>face/face107.png</t>
-  </si>
-  <si>
-    <t>dog/dog084.png</t>
-  </si>
-  <si>
-    <t>flower/flower098.png</t>
-  </si>
-  <si>
-    <t>flower/flower088.png</t>
-  </si>
-  <si>
-    <t>car/car096.png</t>
-  </si>
-  <si>
-    <t>flower/flower097.png</t>
-  </si>
-  <si>
-    <t>dog/dog080.png</t>
-  </si>
-  <si>
-    <t>car/car065.png</t>
-  </si>
-  <si>
-    <t>car/car107.png</t>
-  </si>
-  <si>
-    <t>dog/dog074.png</t>
-  </si>
-  <si>
-    <t>dog/dog107.png</t>
-  </si>
-  <si>
-    <t>dog/dog094.png</t>
-  </si>
-  <si>
-    <t>face/face068.png</t>
-  </si>
-  <si>
-    <t>car/car069.png</t>
-  </si>
-  <si>
-    <t>car/car082.png</t>
-  </si>
-  <si>
-    <t>flower/flower089.png</t>
-  </si>
-  <si>
-    <t>flower/flower107.png</t>
-  </si>
-  <si>
-    <t>car/car072.png</t>
-  </si>
-  <si>
-    <t>dog/dog122.png</t>
-  </si>
-  <si>
-    <t>face/face079.png</t>
-  </si>
-  <si>
-    <t>car/car121.png</t>
-  </si>
-  <si>
-    <t>car/car087.png</t>
-  </si>
-  <si>
-    <t>face/face087.png</t>
-  </si>
-  <si>
-    <t>dog/dog090.png</t>
-  </si>
-  <si>
-    <t>car/car117.png</t>
-  </si>
-  <si>
-    <t>flower/flower070.png</t>
-  </si>
-  <si>
-    <t>car/car101.png</t>
-  </si>
-  <si>
-    <t>dog/dog104.png</t>
-  </si>
-  <si>
-    <t>flower/flower110.png</t>
-  </si>
-  <si>
-    <t>dog/dog082.png</t>
-  </si>
-  <si>
-    <t>dog/dog077.png</t>
-  </si>
-  <si>
-    <t>face/face074.png</t>
-  </si>
-  <si>
-    <t>dog/dog114.png</t>
-  </si>
-  <si>
-    <t>dog/dog085.png</t>
-  </si>
-  <si>
-    <t>face/face097.png</t>
-  </si>
-  <si>
-    <t>flower/flower105.png</t>
-  </si>
-  <si>
-    <t>face/face089.png</t>
-  </si>
-  <si>
-    <t>face/face085.png</t>
-  </si>
-  <si>
-    <t>dog/dog075.png</t>
-  </si>
-  <si>
-    <t>dog/dog106.png</t>
-  </si>
-  <si>
-    <t>face/face076.png</t>
-  </si>
-  <si>
-    <t>dog/dog071.png</t>
-  </si>
-  <si>
-    <t>face/face091.png</t>
-  </si>
-  <si>
-    <t>face/face081.png</t>
-  </si>
-  <si>
-    <t>car/car070.png</t>
-  </si>
-  <si>
-    <t>dog/dog092.png</t>
-  </si>
-  <si>
-    <t>flower/flower095.png</t>
-  </si>
-  <si>
-    <t>car/car067.png</t>
-  </si>
-  <si>
-    <t>face/face096.png</t>
-  </si>
-  <si>
-    <t>flower/flower093.png</t>
-  </si>
-  <si>
-    <t>flower/flower086.png</t>
-  </si>
-  <si>
-    <t>dog/dog072.png</t>
-  </si>
-  <si>
-    <t>car/car091.png</t>
-  </si>
-  <si>
-    <t>car/car088.png</t>
-  </si>
-  <si>
-    <t>car/car083.png</t>
-  </si>
-  <si>
-    <t>dog/dog068.png</t>
-  </si>
-  <si>
-    <t>flower/flower072.png</t>
-  </si>
-  <si>
-    <t>flower/flower087.png</t>
-  </si>
-  <si>
-    <t>dog/dog108.png</t>
-  </si>
-  <si>
-    <t>car/car097.png</t>
-  </si>
-  <si>
-    <t>car/car093.png</t>
-  </si>
-  <si>
-    <t>face/face093.png</t>
-  </si>
-  <si>
-    <t>dog/dog066.png</t>
-  </si>
-  <si>
-    <t>dog/dog081.png</t>
-  </si>
-  <si>
-    <t>car/car089.png</t>
-  </si>
-  <si>
-    <t>face/face108.png</t>
-  </si>
-  <si>
-    <t>face/face110.png</t>
-  </si>
-  <si>
-    <t>car/car085.png</t>
-  </si>
-  <si>
-    <t>flower/flower114.png</t>
-  </si>
-  <si>
-    <t>flower/flower126.png</t>
-  </si>
-  <si>
-    <t>face/face112.png</t>
-  </si>
-  <si>
-    <t>car/car106.png</t>
-  </si>
-  <si>
-    <t>face/face117.png</t>
-  </si>
-  <si>
-    <t>dog/dog093.png</t>
-  </si>
-  <si>
-    <t>face/face099.png</t>
-  </si>
-  <si>
-    <t>face/face064.png</t>
-  </si>
-  <si>
-    <t>face/face083.png</t>
-  </si>
-  <si>
-    <t>car/car086.png</t>
-  </si>
-  <si>
-    <t>flower/flower084.png</t>
-  </si>
-  <si>
-    <t>face/face066.png</t>
-  </si>
-  <si>
-    <t>dog/dog073.png</t>
-  </si>
-  <si>
-    <t>flower/flower100.png</t>
-  </si>
-  <si>
-    <t>car/car068.png</t>
-  </si>
-  <si>
-    <t>dog/dog115.png</t>
-  </si>
-  <si>
-    <t>car/car095.png</t>
-  </si>
-  <si>
-    <t>flower/flower091.png</t>
-  </si>
-  <si>
-    <t>flower/flower077.png</t>
-  </si>
-  <si>
-    <t>flower/flower101.png</t>
-  </si>
-  <si>
-    <t>face/face078.png</t>
-  </si>
-  <si>
-    <t>dog/dog102.png</t>
-  </si>
-  <si>
-    <t>flower/flower073.png</t>
-  </si>
-  <si>
-    <t>flower/flower099.png</t>
-  </si>
-  <si>
-    <t>car/car108.png</t>
-  </si>
-  <si>
-    <t>dog/dog064.png</t>
-  </si>
-  <si>
-    <t>car/car084.png</t>
-  </si>
-  <si>
-    <t>face/face113.png</t>
-  </si>
-  <si>
-    <t>flower/flower068.png</t>
-  </si>
-  <si>
-    <t>flower/flower074.png</t>
-  </si>
-  <si>
-    <t>face/face095.png</t>
-  </si>
-  <si>
-    <t>flower/flower085.png</t>
-  </si>
-  <si>
-    <t>face/face073.png</t>
-  </si>
-  <si>
-    <t>car/car092.png</t>
-  </si>
-  <si>
-    <t>face/face084.png</t>
-  </si>
-  <si>
-    <t>car/car099.png</t>
-  </si>
-  <si>
-    <t>car/car110.png</t>
-  </si>
-  <si>
-    <t>face/face109.png</t>
-  </si>
-  <si>
-    <t>car/car094.png</t>
-  </si>
-  <si>
-    <t>dog/dog091.png</t>
-  </si>
-  <si>
-    <t>dog/dog079.png</t>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower009.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>grenzen</t>
+  </si>
+  <si>
+    <t>nullen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>quellen</t>
   </si>
   <si>
     <t>ärgern</t>
   </si>
   <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>frischen</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
     <t>wachsen</t>
   </si>
   <si>
-    <t>gelten</t>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>gründen</t>
   </si>
   <si>
     <t>langen</t>
   </si>
   <si>
-    <t>lernen</t>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>angeln</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>legen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
   </si>
   <si>
     <t>reisen</t>
   </si>
   <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>hauen</t>
+    <t>piepen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
   </si>
   <si>
     <t>bauen</t>
   </si>
   <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
     <t>lügen</t>
   </si>
   <si>
-    <t>bergen</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1214,15 +1214,15 @@
         <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1231,15 +1231,15 @@
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1299,15 +1299,15 @@
         <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1350,15 +1350,15 @@
         <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1367,15 +1367,15 @@
         <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1384,15 +1384,15 @@
         <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1401,15 +1401,15 @@
         <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1435,15 +1435,15 @@
         <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1452,15 +1452,15 @@
         <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1469,15 +1469,15 @@
         <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1486,15 +1486,15 @@
         <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1503,15 +1503,15 @@
         <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1537,15 +1537,15 @@
         <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1554,15 +1554,15 @@
         <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1571,15 +1571,15 @@
         <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1588,15 +1588,15 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1605,15 +1605,15 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1622,15 +1622,15 @@
         <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1639,15 +1639,15 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1656,15 +1656,15 @@
         <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1673,15 +1673,15 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1690,15 +1690,15 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1707,15 +1707,15 @@
         <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1724,15 +1724,15 @@
         <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1758,15 +1758,15 @@
         <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B36">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1775,15 +1775,15 @@
         <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1809,15 +1809,15 @@
         <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1843,15 +1843,15 @@
         <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -1860,15 +1860,15 @@
         <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1877,15 +1877,15 @@
         <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -1894,15 +1894,15 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1911,15 +1911,15 @@
         <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -1928,15 +1928,15 @@
         <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1945,15 +1945,15 @@
         <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B47">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1962,15 +1962,15 @@
         <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B48">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1979,15 +1979,15 @@
         <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B49">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1996,15 +1996,15 @@
         <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -2030,15 +2030,15 @@
         <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -2047,15 +2047,15 @@
         <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -2081,15 +2081,15 @@
         <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B55">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -2098,15 +2098,15 @@
         <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B56">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -2115,15 +2115,15 @@
         <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -2132,15 +2132,15 @@
         <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
@@ -2149,15 +2149,15 @@
         <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -2183,15 +2183,15 @@
         <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -2200,15 +2200,15 @@
         <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B63">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -2234,15 +2234,15 @@
         <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
@@ -2251,15 +2251,15 @@
         <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B66">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -2285,15 +2285,15 @@
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
@@ -2319,15 +2319,15 @@
         <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -2336,15 +2336,15 @@
         <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B70">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B71">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -2370,15 +2370,15 @@
         <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
@@ -2387,15 +2387,15 @@
         <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B74">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
@@ -2421,15 +2421,15 @@
         <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B75">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
@@ -2438,15 +2438,15 @@
         <v>205</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B76">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
@@ -2455,15 +2455,15 @@
         <v>206</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B77">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
@@ -2472,15 +2472,15 @@
         <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B78">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -2489,15 +2489,15 @@
         <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B79">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -2506,15 +2506,15 @@
         <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B80">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -2523,15 +2523,15 @@
         <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
@@ -2540,15 +2540,15 @@
         <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -2557,15 +2557,15 @@
         <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
@@ -2574,15 +2574,15 @@
         <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B84">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -2608,15 +2608,15 @@
         <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B86">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2625,15 +2625,15 @@
         <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B87">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -2642,15 +2642,15 @@
         <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B88">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -2659,15 +2659,15 @@
         <v>218</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -2676,15 +2676,15 @@
         <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B91">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
@@ -2710,15 +2710,15 @@
         <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B92">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -2727,15 +2727,15 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -2744,15 +2744,15 @@
         <v>223</v>
       </c>
       <c r="E93" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B94">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -2778,15 +2778,15 @@
         <v>225</v>
       </c>
       <c r="E95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -2795,15 +2795,15 @@
         <v>226</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B97">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -2812,15 +2812,15 @@
         <v>227</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B98">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -2829,15 +2829,15 @@
         <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B99">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
@@ -2846,15 +2846,15 @@
         <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B100">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -2863,15 +2863,15 @@
         <v>230</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B101">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -2880,15 +2880,15 @@
         <v>231</v>
       </c>
       <c r="E101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B102">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="B103">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -2914,15 +2914,15 @@
         <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B104">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -2931,15 +2931,15 @@
         <v>234</v>
       </c>
       <c r="E104" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B105">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B106">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
@@ -2965,15 +2965,15 @@
         <v>236</v>
       </c>
       <c r="E106" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
@@ -2982,15 +2982,15 @@
         <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B108">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B110">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -3033,15 +3033,15 @@
         <v>240</v>
       </c>
       <c r="E110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B111">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
@@ -3050,15 +3050,15 @@
         <v>241</v>
       </c>
       <c r="E111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B112">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -3067,15 +3067,15 @@
         <v>242</v>
       </c>
       <c r="E112" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B113">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
@@ -3084,15 +3084,15 @@
         <v>243</v>
       </c>
       <c r="E113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B114">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -3101,15 +3101,15 @@
         <v>244</v>
       </c>
       <c r="E114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
@@ -3118,15 +3118,15 @@
         <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B116">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
@@ -3135,15 +3135,15 @@
         <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B117">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
@@ -3152,15 +3152,15 @@
         <v>247</v>
       </c>
       <c r="E117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
@@ -3169,15 +3169,15 @@
         <v>248</v>
       </c>
       <c r="E118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B119">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -3186,15 +3186,15 @@
         <v>249</v>
       </c>
       <c r="E119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B120">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -3203,15 +3203,15 @@
         <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
@@ -3237,15 +3237,15 @@
         <v>252</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B123">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B124">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -3271,15 +3271,15 @@
         <v>254</v>
       </c>
       <c r="E124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B125">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B126">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
@@ -3322,15 +3322,15 @@
         <v>257</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B128">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
@@ -3339,15 +3339,15 @@
         <v>258</v>
       </c>
       <c r="E128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
@@ -3356,7 +3356,7 @@
         <v>259</v>
       </c>
       <c r="E129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -28,784 +28,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
     <t>house/house016.jpg</t>
   </si>
   <si>
-    <t>dog/dog031.jpg</t>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
   </si>
   <si>
     <t>flower/flower021.jpg</t>
   </si>
   <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
+    <t>face/face015.jpg</t>
   </si>
   <si>
     <t>face/face009.jpg</t>
   </si>
   <si>
-    <t>flower/flower002.jpg</t>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
   </si>
   <si>
     <t>face/face003.jpg</t>
   </si>
   <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
     <t>house/house008.jpg</t>
   </si>
   <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
   </si>
   <si>
     <t>house/house000.jpg</t>
   </si>
   <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
+    <t>house/house010.jpg</t>
   </si>
   <si>
     <t>dog/dog005.jpg</t>
   </si>
   <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower009.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
     <t>house/house026.jpg</t>
   </si>
   <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>mieten</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>frischen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>währen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>langen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>sieben</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>piepen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>quellen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>legen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>angeln</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>tagen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>schicken</t>
   </si>
   <si>
     <t>opfern</t>
   </si>
   <si>
-    <t>narren</t>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>nullen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>fliegen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>stärken</t>
   </si>
   <si>
     <t>grenzen</t>
   </si>
   <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>liefern</t>
+    <t>rücken</t>
   </si>
   <si>
     <t>regnen</t>
   </si>
   <si>
-    <t>wecken</t>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>passen</t>
   </si>
   <si>
     <t>füttern</t>
   </si>
   <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
     <t>posten</t>
   </si>
   <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>kennen</t>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>streifen</t>
   </si>
   <si>
     <t>formen</t>
   </si>
   <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>gelten</t>
+    <t>kehren</t>
   </si>
   <si>
     <t>öffnen</t>
   </si>
   <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
     <t>loben</t>
   </si>
   <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>lügen</t>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
   </si>
   <si>
     <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1265,15 +1265,15 @@
         <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1282,15 +1282,15 @@
         <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1333,15 +1333,15 @@
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1350,15 +1350,15 @@
         <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1367,15 +1367,15 @@
         <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1435,15 +1435,15 @@
         <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1452,15 +1452,15 @@
         <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1469,15 +1469,15 @@
         <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1486,15 +1486,15 @@
         <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1520,15 +1520,15 @@
         <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1537,15 +1537,15 @@
         <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1571,15 +1571,15 @@
         <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1588,15 +1588,15 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1622,15 +1622,15 @@
         <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1639,15 +1639,15 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1656,15 +1656,15 @@
         <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1673,15 +1673,15 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1707,15 +1707,15 @@
         <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1724,15 +1724,15 @@
         <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1775,15 +1775,15 @@
         <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1792,15 +1792,15 @@
         <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1809,15 +1809,15 @@
         <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B39">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1826,15 +1826,15 @@
         <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1843,15 +1843,15 @@
         <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -1860,15 +1860,15 @@
         <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1877,15 +1877,15 @@
         <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -1894,15 +1894,15 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1911,15 +1911,15 @@
         <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -1928,15 +1928,15 @@
         <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1945,15 +1945,15 @@
         <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B47">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1962,15 +1962,15 @@
         <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1979,15 +1979,15 @@
         <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1996,15 +1996,15 @@
         <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B50">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
@@ -2013,15 +2013,15 @@
         <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -2047,15 +2047,15 @@
         <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -2081,15 +2081,15 @@
         <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B55">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -2098,15 +2098,15 @@
         <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -2115,15 +2115,15 @@
         <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -2132,15 +2132,15 @@
         <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B58">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
@@ -2149,15 +2149,15 @@
         <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B59">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
@@ -2166,15 +2166,15 @@
         <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -2217,15 +2217,15 @@
         <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -2234,15 +2234,15 @@
         <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
@@ -2251,15 +2251,15 @@
         <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B65">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -2268,15 +2268,15 @@
         <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -2285,15 +2285,15 @@
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B68">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
@@ -2319,15 +2319,15 @@
         <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -2353,15 +2353,15 @@
         <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B71">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -2370,15 +2370,15 @@
         <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B74">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
@@ -2421,15 +2421,15 @@
         <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B76">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
@@ -2455,15 +2455,15 @@
         <v>206</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B78">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -2489,15 +2489,15 @@
         <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B80">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -2523,15 +2523,15 @@
         <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B81">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B82">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -2557,15 +2557,15 @@
         <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
@@ -2574,15 +2574,15 @@
         <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B84">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -2591,15 +2591,15 @@
         <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -2608,15 +2608,15 @@
         <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B86">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2625,15 +2625,15 @@
         <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -2642,15 +2642,15 @@
         <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B88">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -2676,15 +2676,15 @@
         <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
@@ -2693,15 +2693,15 @@
         <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B91">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
@@ -2710,15 +2710,15 @@
         <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B92">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -2727,15 +2727,15 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
@@ -2761,15 +2761,15 @@
         <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -2795,15 +2795,15 @@
         <v>226</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B97">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B98">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -2829,15 +2829,15 @@
         <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -2897,15 +2897,15 @@
         <v>232</v>
       </c>
       <c r="E102" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B103">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B104">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -2931,15 +2931,15 @@
         <v>234</v>
       </c>
       <c r="E104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B105">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
@@ -2948,15 +2948,15 @@
         <v>235</v>
       </c>
       <c r="E105" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B106">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
@@ -2965,15 +2965,15 @@
         <v>236</v>
       </c>
       <c r="E106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
@@ -2982,15 +2982,15 @@
         <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B108">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
@@ -2999,15 +2999,15 @@
         <v>238</v>
       </c>
       <c r="E108" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -3016,15 +3016,15 @@
         <v>239</v>
       </c>
       <c r="E109" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B110">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -3033,15 +3033,15 @@
         <v>240</v>
       </c>
       <c r="E110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B112">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -3067,15 +3067,15 @@
         <v>242</v>
       </c>
       <c r="E112" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B113">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B114">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -3101,15 +3101,15 @@
         <v>244</v>
       </c>
       <c r="E114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
@@ -3118,15 +3118,15 @@
         <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B116">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
@@ -3135,15 +3135,15 @@
         <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B117">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
@@ -3157,10 +3157,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B118">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B119">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B120">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -3203,15 +3203,15 @@
         <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B121">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -3220,15 +3220,15 @@
         <v>251</v>
       </c>
       <c r="E121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B122">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
@@ -3237,15 +3237,15 @@
         <v>252</v>
       </c>
       <c r="E122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B123">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
@@ -3254,15 +3254,15 @@
         <v>253</v>
       </c>
       <c r="E123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B124">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -3271,15 +3271,15 @@
         <v>254</v>
       </c>
       <c r="E124" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
@@ -3288,15 +3288,15 @@
         <v>255</v>
       </c>
       <c r="E125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
@@ -3305,15 +3305,15 @@
         <v>256</v>
       </c>
       <c r="E126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B127">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
@@ -3322,15 +3322,15 @@
         <v>257</v>
       </c>
       <c r="E127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
@@ -3339,15 +3339,15 @@
         <v>258</v>
       </c>
       <c r="E128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
@@ -3356,7 +3356,7 @@
         <v>259</v>
       </c>
       <c r="E129" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -28,778 +28,778 @@
     <t>category</t>
   </si>
   <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
     <t>flower/flower001.jpg</t>
   </si>
   <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
     <t>face/face029.jpg</t>
   </si>
   <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower016.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
     <t>dog/dog009.jpg</t>
   </si>
   <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
   </si>
   <si>
     <t>house/house011.jpg</t>
   </si>
   <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>deuten</t>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
   </si>
   <si>
     <t>bitten</t>
   </si>
   <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>spüren</t>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>dienen</t>
   </si>
   <si>
     <t>fließen</t>
   </si>
   <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>frischen</t>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
   </si>
   <si>
     <t>ehren</t>
   </si>
   <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>langen</t>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>tollen</t>
   </si>
   <si>
     <t>bauen</t>
   </si>
   <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>loben</t>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
   <si>
     <t>dog</t>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1231,15 +1231,15 @@
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1265,15 +1265,15 @@
         <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1282,15 +1282,15 @@
         <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1316,15 +1316,15 @@
         <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1333,15 +1333,15 @@
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1350,15 +1350,15 @@
         <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1384,15 +1384,15 @@
         <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1401,15 +1401,15 @@
         <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1452,15 +1452,15 @@
         <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1469,15 +1469,15 @@
         <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1486,15 +1486,15 @@
         <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1503,15 +1503,15 @@
         <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1520,15 +1520,15 @@
         <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1537,15 +1537,15 @@
         <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1571,15 +1571,15 @@
         <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1588,15 +1588,15 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1605,15 +1605,15 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1622,15 +1622,15 @@
         <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1639,15 +1639,15 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1656,15 +1656,15 @@
         <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1673,15 +1673,15 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1690,15 +1690,15 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1707,15 +1707,15 @@
         <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1724,15 +1724,15 @@
         <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B34">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1741,15 +1741,15 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1775,15 +1775,15 @@
         <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1792,15 +1792,15 @@
         <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B38">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1809,15 +1809,15 @@
         <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1826,15 +1826,15 @@
         <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1843,15 +1843,15 @@
         <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -1860,15 +1860,15 @@
         <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B42">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1877,15 +1877,15 @@
         <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -1894,15 +1894,15 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1911,15 +1911,15 @@
         <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -1928,15 +1928,15 @@
         <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1945,15 +1945,15 @@
         <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B47">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -1979,15 +1979,15 @@
         <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B49">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1996,15 +1996,15 @@
         <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B50">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
@@ -2013,15 +2013,15 @@
         <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -2030,15 +2030,15 @@
         <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -2047,15 +2047,15 @@
         <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B53">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -2064,15 +2064,15 @@
         <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B54">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B55">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -2132,15 +2132,15 @@
         <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
@@ -2149,15 +2149,15 @@
         <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B59">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
@@ -2183,15 +2183,15 @@
         <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
@@ -2217,15 +2217,15 @@
         <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
@@ -2234,15 +2234,15 @@
         <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B64">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B65">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B66">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -2285,15 +2285,15 @@
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -2302,15 +2302,15 @@
         <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
@@ -2319,15 +2319,15 @@
         <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B70">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -2353,15 +2353,15 @@
         <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -2370,15 +2370,15 @@
         <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B72">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
@@ -2387,15 +2387,15 @@
         <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
@@ -2438,15 +2438,15 @@
         <v>205</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
@@ -2455,15 +2455,15 @@
         <v>206</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
@@ -2472,15 +2472,15 @@
         <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -2489,15 +2489,15 @@
         <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -2506,15 +2506,15 @@
         <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B80">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -2523,15 +2523,15 @@
         <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B81">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
@@ -2540,15 +2540,15 @@
         <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B82">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -2557,15 +2557,15 @@
         <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B83">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
@@ -2574,15 +2574,15 @@
         <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -2591,15 +2591,15 @@
         <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -2608,15 +2608,15 @@
         <v>215</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2625,15 +2625,15 @@
         <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B87">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -2642,15 +2642,15 @@
         <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B89">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -2676,15 +2676,15 @@
         <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B90">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
@@ -2693,15 +2693,15 @@
         <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B91">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B92">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B93">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -2744,15 +2744,15 @@
         <v>223</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B94">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
@@ -2761,15 +2761,15 @@
         <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -2795,15 +2795,15 @@
         <v>226</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B97">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B98">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -2829,15 +2829,15 @@
         <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
@@ -2846,15 +2846,15 @@
         <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="B100">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B103">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -2914,15 +2914,15 @@
         <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -2931,15 +2931,15 @@
         <v>234</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B105">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
@@ -2948,15 +2948,15 @@
         <v>235</v>
       </c>
       <c r="E105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B106">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B107">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B108">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B109">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B110">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -3033,15 +3033,15 @@
         <v>240</v>
       </c>
       <c r="E110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B111">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B112">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
@@ -3084,15 +3084,15 @@
         <v>243</v>
       </c>
       <c r="E113" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B114">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="B115">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
@@ -3118,15 +3118,15 @@
         <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B116">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
@@ -3135,15 +3135,15 @@
         <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B117">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
@@ -3152,15 +3152,15 @@
         <v>247</v>
       </c>
       <c r="E117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B118">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
@@ -3169,7 +3169,7 @@
         <v>248</v>
       </c>
       <c r="E118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3186,15 +3186,15 @@
         <v>249</v>
       </c>
       <c r="E119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B120">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -3203,15 +3203,15 @@
         <v>250</v>
       </c>
       <c r="E120" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B121">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -3220,15 +3220,15 @@
         <v>251</v>
       </c>
       <c r="E121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B122">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
@@ -3237,15 +3237,15 @@
         <v>252</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B123">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
@@ -3254,15 +3254,15 @@
         <v>253</v>
       </c>
       <c r="E123" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B124">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -3271,15 +3271,15 @@
         <v>254</v>
       </c>
       <c r="E124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B125">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="B127">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B128">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
@@ -3339,15 +3339,15 @@
         <v>258</v>
       </c>
       <c r="E128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B129">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>

--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
     <t>house/house002.jpg</t>
   </si>
   <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
     <t>dog/dog022.jpg</t>
   </si>
   <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
     <t>flower/flower021.jpg</t>
   </si>
   <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
     <t>house/house004.jpg</t>
   </si>
   <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
   </si>
   <si>
     <t>flower/flower018.jpg</t>
   </si>
   <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
     <t>house/house021.jpg</t>
   </si>
   <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>bieten</t>
   </si>
   <si>
     <t>segeln</t>
   </si>
   <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>schultern</t>
   </si>
   <si>
     <t>küssen</t>
   </si>
   <si>
-    <t>tollen</t>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>retten</t>
   </si>
   <si>
     <t>gleichen</t>
   </si>
   <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>süßen</t>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>tragen</t>
   </si>
   <si>
     <t>binden</t>
   </si>
   <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
     <t>ehren</t>
   </si>
   <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1262,7 +1262,7 @@
         <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2285,7 +2285,7 @@
         <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2362,7 +2362,7 @@
         <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -25,772 +25,775 @@
     <t>category</t>
   </si>
   <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
     <t>house/house022.jpg</t>
   </si>
   <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
     <t>face/face019.jpg</t>
   </si>
   <si>
-    <t>house/house007.jpg</t>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
   </si>
   <si>
     <t>flower/flower000.jpg</t>
   </si>
   <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
     <t>face/face002.jpg</t>
   </si>
   <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
     <t>dog/dog000.jpg</t>
   </si>
   <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
     <t>house/house002.jpg</t>
   </si>
   <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>sehen</t>
   </si>
   <si>
     <t>füttern</t>
   </si>
   <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
     <t>seufzen</t>
   </si>
   <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>steuern</t>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>süßen</t>
   </si>
   <si>
     <t>reizen</t>
   </si>
   <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
   </si>
   <si>
     <t>geben</t>
   </si>
   <si>
+    <t>gleichen</t>
+  </si>
+  <si>
     <t>kommen</t>
   </si>
   <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>stopfen</t>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>leuchten</t>
   </si>
   <si>
     <t>quälen</t>
   </si>
   <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
     <t>danken</t>
   </si>
   <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
     <t>schaden</t>
   </si>
   <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>ehren</t>
+    <t>dog</t>
   </si>
   <si>
     <t>house</t>
@@ -800,9 +803,6 @@
   </si>
   <si>
     <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1262,7 +1262,7 @@
         <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2285,7 +2285,7 @@
         <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_pairings.xlsx
+++ b/sequences/22_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
     <t>dog/dog011.jpg</t>
   </si>
   <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
     <t>house/house025.jpg</t>
   </si>
   <si>
-    <t>dog/dog025.jpg</t>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
   </si>
   <si>
     <t>dog/dog016.jpg</t>
   </si>
   <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
     <t>face/face013.jpg</t>
   </si>
   <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
   </si>
   <si>
     <t>flower/flower024.jpg</t>
   </si>
   <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
   </si>
   <si>
     <t>flower/flower021.jpg</t>
   </si>
   <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>landen</t>
   </si>
   <si>
     <t>decken</t>
   </si>
   <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
     <t>stillen</t>
   </si>
   <si>
-    <t>leisten</t>
-  </si>
-  <si>
     <t>achten</t>
   </si>
   <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
     <t>schultern</t>
   </si>
   <si>
-    <t>tropfen</t>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>klingen</t>
   </si>
   <si>
     <t>platzen</t>
   </si>
   <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>segeln</t>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>runden</t>
   </si>
   <si>
     <t>wagen</t>
   </si>
   <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
     <t>biegen</t>
   </si>
   <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>schaden</t>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
   </si>
   <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1262,7 +1262,7 @@
         <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2285,7 +2285,7 @@
         <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2362,7 +2362,7 @@
         <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
